--- a/DatabasePol.xlsx
+++ b/DatabasePol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\MasterPolApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2310" windowWidth="22110" windowHeight="10110" tabRatio="885" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="930" yWindow="2310" windowWidth="22110" windowHeight="10110" tabRatio="885" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Partner_products_import" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Продукция</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>IdIndex</t>
+  </si>
+  <si>
+    <t>IdAddress</t>
   </si>
 </sst>
 </file>
@@ -1527,10 +1530,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,11 +1545,12 @@
     <col min="6" max="6" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1572,13 +1576,16 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1606,13 +1613,16 @@
         <v>38</v>
       </c>
       <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>2222455179</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1640,13 +1650,16 @@
         <v>42</v>
       </c>
       <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
         <v>5552431140</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1674,13 +1687,16 @@
         <v>39</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>3333888520</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1708,13 +1724,16 @@
         <v>41</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1111520857</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1742,9 +1761,12 @@
         <v>40</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>4440391035</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>7</v>
       </c>
     </row>
@@ -1770,7 +1792,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
